--- a/IP calculation.xlsx
+++ b/IP calculation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1489575d681a5a9b/JOD - Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05B89F6-D8AE-4CCB-B63F-C6368E5055F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{F05B89F6-D8AE-4CCB-B63F-C6368E5055F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CB7FDE0-7B98-4FD5-9E48-3E8948514AF3}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="10296" activeTab="3" xr2:uid="{E45E7C5B-D217-4C75-85E9-9DB2A68A622A}"/>
+    <workbookView xWindow="23004" yWindow="192" windowWidth="18804" windowHeight="10104" activeTab="4" xr2:uid="{E45E7C5B-D217-4C75-85E9-9DB2A68A622A}"/>
   </bookViews>
   <sheets>
     <sheet name="base2" sheetId="1" r:id="rId1"/>
     <sheet name="base10" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="VLSM" sheetId="4" r:id="rId4"/>
+    <sheet name="VLSM-example1" sheetId="4" r:id="rId4"/>
+    <sheet name="VLSM-example2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
   <si>
     <t>2^7</t>
   </si>
@@ -411,6 +412,96 @@
   </si>
   <si>
     <t>192.168.0.128/25</t>
+  </si>
+  <si>
+    <t>Based 192.168.100.0/24n</t>
+  </si>
+  <si>
+    <t>2^c-2=100</t>
+  </si>
+  <si>
+    <t>c=7</t>
+  </si>
+  <si>
+    <t>n=25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Sales </t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>192.168.100.0</t>
+  </si>
+  <si>
+    <t>First usable</t>
+  </si>
+  <si>
+    <t>Last usable</t>
+  </si>
+  <si>
+    <t>192.168.100.127</t>
+  </si>
+  <si>
+    <t>192.168.100.1</t>
+  </si>
+  <si>
+    <t>192.168.100.126</t>
+  </si>
+  <si>
+    <t># client</t>
+  </si>
+  <si>
+    <t>A. Operation</t>
+  </si>
+  <si>
+    <t>2^c-2=30</t>
+  </si>
+  <si>
+    <t>c=5</t>
+  </si>
+  <si>
+    <t>n=27</t>
+  </si>
+  <si>
+    <t>192.168.100.128</t>
+  </si>
+  <si>
+    <t>192.168.100.129</t>
+  </si>
+  <si>
+    <t>1001 1111</t>
+  </si>
+  <si>
+    <t>192.168.100.159</t>
+  </si>
+  <si>
+    <t>192.168.100.158</t>
+  </si>
+  <si>
+    <t>A. Hr</t>
+  </si>
+  <si>
+    <t>2^c-2=5</t>
+  </si>
+  <si>
+    <t>1010 0000</t>
+  </si>
+  <si>
+    <t>192.168.100.160</t>
+  </si>
+  <si>
+    <t>192.168.100.161</t>
+  </si>
+  <si>
+    <t>1010 0111</t>
+  </si>
+  <si>
+    <t>192.168.100.167</t>
+  </si>
+  <si>
+    <t>192.168.100.166</t>
   </si>
 </sst>
 </file>
@@ -1756,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF9DBCA-B28E-4900-8C1E-3AC14BC2FD48}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2408,4 +2499,482 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AF99F6-5575-4336-9C04-7A91B3663622}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="4">
+        <v>126</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <f>128+31</f>
+        <v>159</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="2">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="3">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>